--- a/biology/Médecine/Plexus_veineux_vaginal/Plexus_veineux_vaginal.xlsx
+++ b/biology/Médecine/Plexus_veineux_vaginal/Plexus_veineux_vaginal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les plexus veineux vaginaux sont placés sur les côtés du vagin ; ils communiquent avec les plexus veineux utérins, le plexus veineux vésical et les plexus veineux rectaux, et sont drainés par les veines vaginales, une de chaque côté, dans les veines iliaques internes.
 </t>
